--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvaso\Desktop\Mafia\mafia rules bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9B2F1E-4007-429F-BB8C-A979F962E61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4057BF22-F566-4B7F-9A8C-E70C6C40E958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{607B337D-2FB4-453C-A23C-B40EB9FFBCC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="287">
   <si>
     <t>Question</t>
   </si>
@@ -891,6 +891,12 @@
   </si>
   <si>
     <t>Что получает игрок, который не откатил ложное вскрытие Шерифом, и команда проиграла?</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Фолы</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1274,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E2F342-70F6-4C43-87C8-1D01D5D518DA}">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1277,7 +1283,7 @@
     <col min="1" max="1" width="32.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1299,8 +1305,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1322,8 +1331,11 @@
       <c r="G2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1345,8 +1357,11 @@
       <c r="G3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1368,8 +1383,11 @@
       <c r="G4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1391,8 +1409,11 @@
       <c r="G5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1414,8 +1435,11 @@
       <c r="G6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1437,8 +1461,11 @@
       <c r="G7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -1460,8 +1487,11 @@
       <c r="G8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1483,8 +1513,11 @@
       <c r="G9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -1506,8 +1539,11 @@
       <c r="G10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -1529,8 +1565,11 @@
       <c r="G11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -1552,8 +1591,11 @@
       <c r="G12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -1575,8 +1617,11 @@
       <c r="G13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -1598,8 +1643,11 @@
       <c r="G14" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -1621,8 +1669,11 @@
       <c r="G15" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -1644,8 +1695,11 @@
       <c r="G16" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -1667,8 +1721,11 @@
       <c r="G17" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -1690,8 +1747,11 @@
       <c r="G18" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -1713,8 +1773,11 @@
       <c r="G19" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -1736,8 +1799,11 @@
       <c r="G20" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>89</v>
       </c>
@@ -1759,8 +1825,11 @@
       <c r="G21" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -1782,8 +1851,11 @@
       <c r="G22" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -1805,8 +1877,11 @@
       <c r="G23" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -1828,8 +1903,11 @@
       <c r="G24" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -1851,8 +1929,11 @@
       <c r="G25" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>116</v>
       </c>
@@ -1874,8 +1955,11 @@
       <c r="G26" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>122</v>
       </c>
@@ -1897,8 +1981,11 @@
       <c r="G27" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>128</v>
       </c>
@@ -1920,8 +2007,11 @@
       <c r="G28" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>131</v>
       </c>
@@ -1943,8 +2033,11 @@
       <c r="G29" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -1966,8 +2059,11 @@
       <c r="G30" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -1989,8 +2085,11 @@
       <c r="G31" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>146</v>
       </c>
@@ -2012,8 +2111,11 @@
       <c r="G32" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>152</v>
       </c>
@@ -2035,8 +2137,11 @@
       <c r="G33" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>156</v>
       </c>
@@ -2058,8 +2163,11 @@
       <c r="G34" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>159</v>
       </c>
@@ -2081,8 +2189,11 @@
       <c r="G35" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>161</v>
       </c>
@@ -2104,8 +2215,11 @@
       <c r="G36" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>163</v>
       </c>
@@ -2127,8 +2241,11 @@
       <c r="G37" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>165</v>
       </c>
@@ -2150,8 +2267,11 @@
       <c r="G38" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>167</v>
       </c>
@@ -2173,8 +2293,11 @@
       <c r="G39" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>169</v>
       </c>
@@ -2196,8 +2319,11 @@
       <c r="G40" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>171</v>
       </c>
@@ -2219,8 +2345,11 @@
       <c r="G41" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>173</v>
       </c>
@@ -2242,8 +2371,11 @@
       <c r="G42" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>175</v>
       </c>
@@ -2265,8 +2397,11 @@
       <c r="G43" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>177</v>
       </c>
@@ -2288,8 +2423,11 @@
       <c r="G44" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>179</v>
       </c>
@@ -2311,8 +2449,11 @@
       <c r="G45" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>181</v>
       </c>
@@ -2334,8 +2475,11 @@
       <c r="G46" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>183</v>
       </c>
@@ -2357,8 +2501,11 @@
       <c r="G47" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>185</v>
       </c>
@@ -2380,8 +2527,11 @@
       <c r="G48" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>187</v>
       </c>
@@ -2403,8 +2553,11 @@
       <c r="G49" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>189</v>
       </c>
@@ -2426,8 +2579,11 @@
       <c r="G50" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>191</v>
       </c>
@@ -2449,8 +2605,11 @@
       <c r="G51" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>193</v>
       </c>
@@ -2472,8 +2631,11 @@
       <c r="G52" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>195</v>
       </c>
@@ -2495,8 +2657,11 @@
       <c r="G53" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>197</v>
       </c>
@@ -2518,8 +2683,11 @@
       <c r="G54" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>199</v>
       </c>
@@ -2541,8 +2709,11 @@
       <c r="G55" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>201</v>
       </c>
@@ -2564,8 +2735,11 @@
       <c r="G56" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>203</v>
       </c>
@@ -2587,8 +2761,11 @@
       <c r="G57" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>205</v>
       </c>
@@ -2610,8 +2787,11 @@
       <c r="G58" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>207</v>
       </c>
@@ -2633,8 +2813,11 @@
       <c r="G59" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>209</v>
       </c>
@@ -2656,8 +2839,11 @@
       <c r="G60" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>211</v>
       </c>
@@ -2679,8 +2865,11 @@
       <c r="G61" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>213</v>
       </c>
@@ -2702,8 +2891,11 @@
       <c r="G62" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>215</v>
       </c>
@@ -2725,8 +2917,11 @@
       <c r="G63" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>217</v>
       </c>
@@ -2748,8 +2943,11 @@
       <c r="G64" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>219</v>
       </c>
@@ -2771,8 +2969,11 @@
       <c r="G65" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>221</v>
       </c>
@@ -2794,8 +2995,11 @@
       <c r="G66" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>223</v>
       </c>
@@ -2817,8 +3021,11 @@
       <c r="G67" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>225</v>
       </c>
@@ -2840,8 +3047,11 @@
       <c r="G68" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>227</v>
       </c>
@@ -2863,8 +3073,11 @@
       <c r="G69" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>229</v>
       </c>
@@ -2886,8 +3099,11 @@
       <c r="G70" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>231</v>
       </c>
@@ -2909,8 +3125,11 @@
       <c r="G71" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>233</v>
       </c>
@@ -2932,8 +3151,11 @@
       <c r="G72" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>235</v>
       </c>
@@ -2955,8 +3177,11 @@
       <c r="G73" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>237</v>
       </c>
@@ -2978,8 +3203,11 @@
       <c r="G74" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>239</v>
       </c>
@@ -3001,8 +3229,11 @@
       <c r="G75" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>235</v>
       </c>
@@ -3024,8 +3255,11 @@
       <c r="G76" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>242</v>
       </c>
@@ -3047,8 +3281,11 @@
       <c r="G77" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>244</v>
       </c>
@@ -3070,8 +3307,11 @@
       <c r="G78" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>246</v>
       </c>
@@ -3093,8 +3333,11 @@
       <c r="G79" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>248</v>
       </c>
@@ -3116,8 +3359,11 @@
       <c r="G80" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>249</v>
       </c>
@@ -3139,8 +3385,11 @@
       <c r="G81" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>251</v>
       </c>
@@ -3162,8 +3411,11 @@
       <c r="G82" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>253</v>
       </c>
@@ -3185,8 +3437,11 @@
       <c r="G83" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>254</v>
       </c>
@@ -3208,8 +3463,11 @@
       <c r="G84" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>256</v>
       </c>
@@ -3231,8 +3489,11 @@
       <c r="G85" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>257</v>
       </c>
@@ -3254,8 +3515,11 @@
       <c r="G86" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H86" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>258</v>
       </c>
@@ -3277,8 +3541,11 @@
       <c r="G87" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>260</v>
       </c>
@@ -3300,8 +3567,11 @@
       <c r="G88" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>261</v>
       </c>
@@ -3323,8 +3593,11 @@
       <c r="G89" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>262</v>
       </c>
@@ -3346,8 +3619,11 @@
       <c r="G90" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>264</v>
       </c>
@@ -3369,8 +3645,11 @@
       <c r="G91" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>265</v>
       </c>
@@ -3392,8 +3671,11 @@
       <c r="G92" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H92" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>267</v>
       </c>
@@ -3415,8 +3697,11 @@
       <c r="G93" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>268</v>
       </c>
@@ -3438,8 +3723,11 @@
       <c r="G94" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>269</v>
       </c>
@@ -3461,8 +3749,11 @@
       <c r="G95" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H95" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>270</v>
       </c>
@@ -3484,8 +3775,11 @@
       <c r="G96" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H96" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>271</v>
       </c>
@@ -3507,8 +3801,11 @@
       <c r="G97" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>272</v>
       </c>
@@ -3530,8 +3827,11 @@
       <c r="G98" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>273</v>
       </c>
@@ -3553,8 +3853,11 @@
       <c r="G99" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>274</v>
       </c>
@@ -3576,8 +3879,11 @@
       <c r="G100" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H100" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>276</v>
       </c>
@@ -3599,8 +3905,11 @@
       <c r="G101" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H101" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>278</v>
       </c>
@@ -3622,8 +3931,11 @@
       <c r="G102" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H102" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>279</v>
       </c>
@@ -3645,8 +3957,11 @@
       <c r="G103" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H103" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>280</v>
       </c>
@@ -3668,8 +3983,11 @@
       <c r="G104" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H104" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>281</v>
       </c>
@@ -3691,8 +4009,11 @@
       <c r="G105" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H105" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>283</v>
       </c>
@@ -3714,8 +4035,11 @@
       <c r="G106" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H106" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>284</v>
       </c>
@@ -3736,6 +4060,9 @@
       </c>
       <c r="G107" t="s">
         <v>250</v>
+      </c>
+      <c r="H107" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
